--- a/data/financial_statements/socf/MTB.xlsx
+++ b/data/financial_statements/socf/MTB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1740 +581,1743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>645000000</v>
+        <v>-1226292000</v>
       </c>
       <c r="C2">
-        <v>217000000</v>
+        <v>646596000</v>
       </c>
       <c r="D2">
-        <v>361000000</v>
+        <v>217522000</v>
       </c>
       <c r="E2">
-        <v>456000000</v>
+        <v>362174000</v>
       </c>
       <c r="F2">
-        <v>493000000</v>
+        <v>457968000</v>
       </c>
       <c r="G2">
+        <v>495460000</v>
+      </c>
+      <c r="H2">
         <v>458069000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>447249000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>471140000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>372136000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>241054000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>268822000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>493066000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>480081000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>473260000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>482742000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>546219000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>526091000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>493160000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>352610000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>322403000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>355923000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>381053000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>348927000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>330571000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>349984000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>336031000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>298528000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>270965000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>280401000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>286688000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>241613000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>277549000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>275344000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>284336000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>229017000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>221422000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>294479000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>348466000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>274113000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>127339000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>122276000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>83311000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>80763000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>84364000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>79276000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>79805000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>80233000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>85510000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>76885000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>77660000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>77272000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>77946000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>73925000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>72172000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>43089000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>44597000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>45750000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>45569000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>46678000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>51029000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>50026000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>49392000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>49177000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>49515000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>50190000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>51709000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>47855000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>41965000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>42359000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>43170000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>45988000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>49445000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>50735000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>52562000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>53749000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>50134000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>49274000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>50578000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>103095000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>217632000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9635000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10306000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-5575000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-7889000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13440000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>162239000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>113318000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>281911000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>212814000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>94180000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>43975000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>102431000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>32189000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>138821000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>59788000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>33646000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-83127000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>400915000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>18176000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>26459000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>85202000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>117009000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>32100000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>70102000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>102616000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>431919000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>22624000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-23042000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>76365000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>90462000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>23132000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>28467000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>74521000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>86755000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>46776000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>13147000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>68135000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-80481000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>132445000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>450268000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-1155000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-268313000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>49584000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>121985000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-115732000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-289440000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-97102000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-172056000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>172707000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>201721000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-380874000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>167599000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>125302000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>467085000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-663038000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-87206000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>192925000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-38678000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-149658000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>689172000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-378274000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-113244000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-170094000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-16319000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>49502000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>297255000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-265273000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>195508000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-120631000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-32302000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-301706000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>119221000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>127012000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-589682000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-424686000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>202771000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>379025000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>430743000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>489545000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>147310000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>79380000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-19167000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>359559000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>140909000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>62952000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-56995000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-708319000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>141988000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-126203000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-228460000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-170092000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-191154000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>50460000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>37535000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>91219000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>65267000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-3349000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-21278000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>113332000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>46384000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-42285000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>18528000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-59080000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-5334000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-3191000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>18404000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-18206000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>10460000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-4005000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-12725000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>27893000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-16414000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-9590000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-7794000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>22156000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-38592000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>66751000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-99163000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1736000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>101004000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-22899000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-27301000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-74667000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-350488000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>79766000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-73363000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>151494000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>69150000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>26590000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-171304000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-112042000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-129646000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>90010000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>165114000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-312119000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>59478000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>50869000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-209000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-53546000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>145989000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-102946000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>70766000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-300339000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>50703000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>40581000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-80084000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>20703000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-6608000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-140701000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>57884000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-43877000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>95064000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-60309000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>80645000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1136982000</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>1187369000</v>
+        <v>768975000</v>
       </c>
       <c r="D8">
-        <v>1295770000</v>
+        <v>619267000</v>
       </c>
       <c r="E8">
-        <v>696928000</v>
+        <v>371705000</v>
       </c>
       <c r="F8">
+        <v>596102000</v>
+      </c>
+      <c r="G8">
         <v>486320000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>536974000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>994737000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>664122000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-6012000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>525519000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-394442000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1130707000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>746670000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>66872000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>413306000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>550235000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1018375000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>37063000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>484179000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>716069000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>442579000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>337471000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1285816000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>111321000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>422059000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>201811000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>448220000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>494568000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>689757000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>99717000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>458366000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>324531000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>305006000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-91594000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>561098000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>428647000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-112819000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-81902000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>698398000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-39068000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-59832000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-27910000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-62048000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-42706000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-13443000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-31016000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-46919000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-31719000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-42104000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-51547000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-58527000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-36865000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-51947000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-30710000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-38374000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-22186000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-27572000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-9544000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-16451000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-12653000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-28341000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-21521000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-42416000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-28658000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-20312000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-16307000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-39192000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-19349000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-13797000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-9598000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-22761000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-12653000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-21022000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-16725000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-43599000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-42301000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-26992000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-16671000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10">
         <v>-1932596000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>8045920000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11781278000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5846922000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-3426510000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-4580970000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-2457593000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-7743417000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-3465880000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>690410000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-11992037000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1706153000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5305370000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-3703771000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-1188856000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>502300000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-1581451000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>146239000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-534551000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-1056531000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1227581000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-1282655000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1921320000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-1944511000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5776998000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-2302797000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1070342000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-1950831000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>4687850000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-667414000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2245639000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>179376000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1205197000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-4643534000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>266655000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-1648047000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>274673000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>629543000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-1250584000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-1174825000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-2088262000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-1955762000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-2388802000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-747296100</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-321793000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>440666000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>385304000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>662221000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>697393000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>545486000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>639470000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1179235000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>931912000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1156377900</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>183750100</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>493408000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>163374000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>738058000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>439818000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>388572000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>723156000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>176976000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>274374000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-1841444000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>218986000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>573643000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>346055000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>6636478000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>339148000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-464567000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-1360099000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>400366000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-1262237000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-1614722000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-1454568000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-328577200</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-1259208900</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1407441000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>413620000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>300715000</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>77303900</v>
+        <v>119377000</v>
       </c>
       <c r="D13">
-        <v>765370100</v>
+        <v>565699000</v>
       </c>
       <c r="E13">
-        <v>782435000</v>
+        <v>119138000</v>
       </c>
       <c r="F13">
+        <v>-125665000</v>
+      </c>
+      <c r="G13">
         <v>3749661000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1979749000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-1542618000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-1192918000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-388822000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-3603233000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-2734133000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-1699404000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-610084000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-767695000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-384079000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-1820364000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>586315000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>735583000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>377727000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-384114000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1086691000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>420850000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>865651000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-615708000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-978631000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-515496000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-394192000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-45188000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-690874000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-519520000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-612015000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-1163705000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-898108000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-502809000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-321698000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-1543941000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>901335000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-549594000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>406103000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6219320000</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>9842980000</v>
+        <v>6587318000</v>
       </c>
       <c r="D14">
-        <v>4195580000</v>
+        <v>10411086000</v>
       </c>
       <c r="E14">
-        <v>-3453430000</v>
+        <v>5119645000</v>
       </c>
       <c r="F14">
+        <v>-3352599000</v>
+      </c>
+      <c r="G14">
         <v>-1195798000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-50625000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-8931747000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-4043490000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>967260000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-15091887000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-3852363000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4726674000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-3418808000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-852120000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>271261000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-2946781000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>873742000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>911518000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-248530000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1215588000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>514539000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2490805000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-826007000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3277430000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-3091100000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1108177000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-2015275000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>9307352000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-1038489000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1247755000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-1802336000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>419100000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-6816534000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-1871898000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-3441038000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-1641444000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>229368000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-419729000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-371773000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>540639000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-975903000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3212000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-56552000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>21764000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>32231000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-853470000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-1046623000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-856791000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-8184000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-756306000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-5452493000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>226554000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>133382000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-796951000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2336781000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-1156935000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1411109000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1946432000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-429788900</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-548196000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1081901900</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-1379750000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-743267000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-297542000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-1355169000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-661025000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-10736678000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>19201000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-361424000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1499022000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-24566000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1687471000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1072322000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1116197000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>12161000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-63480000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-320571000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>96411000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-600000000</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
         <v>-600000000</v>
       </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="D16">
+        <v>-600000000</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2209,79 +2326,79 @@
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>-373750000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-282210000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-299963000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-401984000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-365628000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-499834000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-498500000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-475096000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-720966000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-224214000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-224724000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-224894000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-532073000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-37334000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-350000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-154000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-100000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>495000000</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>14500000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-5000000</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
       <c r="AH17">
         <v>0</v>
       </c>
@@ -2289,513 +2406,513 @@
         <v>0</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>346500000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-242700000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-229493000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-187375000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-167531000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-163038000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-154559000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-163332000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-154720000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-162802000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-154332000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-164514000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-157983000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-151312000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-153334000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-156963000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-157895000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-161183000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-134139000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-129686000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-131128000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-131882000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-133192000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-133934000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-132116000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-127231000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-134446000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-129368000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-117135000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-111239000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-116914000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-110999000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-116349000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-110602000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-115996000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-98486000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-113787000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-96445000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-113010000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-95557000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-6486690000</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>-8948146000</v>
+        <v>25404000</v>
       </c>
       <c r="D19">
-        <v>-5233304000</v>
+        <v>-20990000</v>
       </c>
       <c r="E19">
-        <v>2838444000</v>
+        <v>-8608000</v>
       </c>
       <c r="F19">
+        <v>-3668000</v>
+      </c>
+      <c r="G19">
         <v>424999000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-213541000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8661058000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4644230000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>192760000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>14785508000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5403262000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-347451000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3429809000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1211535000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>296796000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1011322000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-132982000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-1674025000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-1459653000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-1093890000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-29542000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-3493576000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1552361000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-2482687000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>3491574000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>439894000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2267583000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1170229000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>339616000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-885129000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-50557000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-752999000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>4540864000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1161484000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1605913000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>927604100</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>628626900</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>583647000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-488027000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-6788750000</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>-10753543000</v>
+        <v>-6788757000</v>
       </c>
       <c r="D20">
+        <v>-10753539000</v>
+      </c>
+      <c r="E20">
         <v>-5417467000</v>
       </c>
-      <c r="E20">
-        <v>2614358000</v>
-      </c>
       <c r="F20">
+        <v>2614362000</v>
+      </c>
+      <c r="G20">
         <v>778726000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-335870000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7644256000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3442880000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-826830000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>14622988000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4108692000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-6240137000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3219588000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>789599000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-1022746000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2690374000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-1949600000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-872151000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-363873000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-1879021000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-934344000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-2769760000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-493396000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-3400404000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>2716801000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-1203721000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1377190000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-9683584000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>247578000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-1363467000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1337466000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-893920000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>6117736000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2117810000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2970124000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>825978000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>468702000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>150066000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-487173000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>567536000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>276814000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>73883000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-142135000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>69244000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>150479000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-292754000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>63511000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>134417000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>56623000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-138113000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-382756000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>547450000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4351000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-338179000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>293828000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-57483000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>76430000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-128224000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>52636000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>22774000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>58516000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-33587000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-11653000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>47760000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>106267000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-189865000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>118336000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-101154000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-15995000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-6504000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-150286000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-393793000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>154318000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>90184000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-386819000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>585251000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-351565000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-160548000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>1337577000</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -2803,11 +2920,11 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1552743000</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -2815,11 +2932,11 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>1436305000</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
         <v>0</v>
       </c>
@@ -2827,11 +2944,11 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>1605439000</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>0</v>
       </c>
@@ -2839,11 +2956,11 @@
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>1420888000</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
       <c r="V22">
         <v>0</v>
       </c>
@@ -2851,11 +2968,11 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>1320549000</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
       <c r="Z22">
         <v>0</v>
       </c>
@@ -2863,11 +2980,11 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>1368040000</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
       <c r="AD22">
         <v>0</v>
       </c>
@@ -2875,11 +2992,11 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>1373357000</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
         <v>0</v>
       </c>
@@ -2887,11 +3004,11 @@
         <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>1672934000</v>
       </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
       <c r="AL22">
         <v>0</v>
       </c>
@@ -2899,760 +3016,766 @@
         <v>0</v>
       </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>1986615000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>567536000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>276814000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1411460000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-142135000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>69244000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>150479000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1259989000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>63511000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>134417000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>56623000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1298192000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-382756000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>547450000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>4351000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1267260000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>293828000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-57483000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>76430000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1292664000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>52636000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>22774000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>58516000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1286962000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-11653000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>47760000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>106267000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1178175000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>118336000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-101154000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-15995000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1366853000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-150286000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-393793000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>154318000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1763118000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-386819000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>585251000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-351565000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1826067000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>578968000</v>
+      </c>
+      <c r="C24">
         <v>-209146000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-213165000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-156657000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-154719000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-141750000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-141747000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-142044000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-141908000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-141514000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-141520000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-143170000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-145171000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-132930000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-134442000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-139595000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-139002000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-143815000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-115247000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-112318000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-112236000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-114514000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-114086000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-116566000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-108849000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-109863000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-111179000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-112000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-93868000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-93871000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-93647000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-93631000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-93081000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-92984000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-92728000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-92406000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-91831000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-91676000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-91054000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-90788000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>-0.7584</v>
+        <v>-0.8754999999999999</v>
       </c>
       <c r="C25">
-        <v>-1.1121</v>
+        <v>-0.76</v>
       </c>
       <c r="D25">
-        <v>-1.5614</v>
+        <v>-1.1098</v>
       </c>
       <c r="E25">
-        <v>-1.9545</v>
+        <v>-1.5621</v>
       </c>
       <c r="F25">
-        <v>-1.9178</v>
+        <v>-1.9598</v>
       </c>
       <c r="G25">
+        <v>-1.9224</v>
+      </c>
+      <c r="H25">
         <v>-1.7327</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-1.529</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-1.2719</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-1.4727</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-1.2794</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.3681</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.009900000000000001</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-0.3774</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-0.1248</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-0.0301</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-0.0704</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.0502</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.007900000000000001</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.0382</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0579</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.03</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0447</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-0.0134</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.1159</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-0.1322</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.0034</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-0.0483</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.08550000000000001</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.2393</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.2723</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.1483</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.0519</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-0.0269</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.1311</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.0553</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.094</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.0529</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.0493</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.1409</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>259952000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>629939000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>840650000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>147891000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-87929000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7518000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>454243000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-49490000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-576976000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-74331000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-953738000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>466189000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>144668000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-582744000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-173797000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-177894000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>387899000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-535493000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>169127000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-53927000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>17451000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-120067000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>802295000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-385436000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-9540000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-254512000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-4633000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-256171000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>344767000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-206288000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>97218000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-89468000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-42915000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-455132000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>204998000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>66721000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-504208000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-492789000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>305572000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>5957660000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>9825510000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3458120000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-4173810000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-4902756000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-2016931000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-7358113000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-2803660000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1387800000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-11446547000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-1066683000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6484605000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-2771858900</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-32478100</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>686050000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-1088043000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>309613100</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>203506900</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-616713000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1616152800</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-559498800</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2098296000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-1670137000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3935554000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-2083811000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1643985000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-1604776000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>11324327000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-328265800</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1781071800</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-1180723000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1605559000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-5905768000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-1348067000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-3102615000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-53904000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-629666000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>156857000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-761205000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-33554000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-16328000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-30718000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-12812000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-21288000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-12812000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-21288000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-12812000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-21288000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-12812000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-21344000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-12812000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-18382000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-18892000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-17368000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-18893000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-17368000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-18892000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-17368000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-18892000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-17368000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-19106000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-17368000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-23267000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-17368000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-23267000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-17368000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-23267000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-17368000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-23267000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-17368000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-23268000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-17618000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-23268000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-6080000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-21956000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-4769000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-21956000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-4769000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>-600000000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C29">
         <v>-600000000</v>
       </c>
-      <c r="E29">
-        <v>0</v>
+      <c r="D29">
+        <v>-600000000</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>495000000</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
@@ -3660,59 +3783,59 @@
         <v>0</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>-373750000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-282210000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-285463000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-401984000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-365628000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-499834000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-498500000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-475096000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-720966000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-224214000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-224724000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-224894000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-532073000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-42334000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-350000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-154000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-100000000</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
       <c r="AH29">
         <v>0</v>
       </c>
@@ -3720,28 +3843,28 @@
         <v>0</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
         <v>346500000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>-600000000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>-600000000</v>
       </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="D30">
+        <v>-600000000</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>495000000</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
@@ -3749,59 +3872,59 @@
         <v>0</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>-373750000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-282210000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-285463000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-401984000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-365628000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-499834000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-498500000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-475096000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-720966000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-224214000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-224724000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-224894000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-532073000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-42334000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-350000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-154000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-100000000</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
       <c r="AH30">
         <v>0</v>
       </c>
@@ -3809,6 +3932,9 @@
         <v>0</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
         <v>346500000</v>
       </c>
     </row>
